--- a/src/main/resources/wordTemp/temp2/6面谈记录及授信额度测算表 抵押贷.xlsx
+++ b/src/main/resources/wordTemp/temp2/6面谈记录及授信额度测算表 抵押贷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\demoTemplate\Template\src\main\resources\wordTemp\temp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{18229A8E-8CD9-47FE-BEB2-49C092781DB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7E6BF060-646A-4B36-BD3D-2522B668ADE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="88">
   <si>
     <t>抵押贷款面谈记录及授信额度测算表</t>
   </si>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>${cls.nop}个月</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cls.sYMD}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -594,23 +598,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,26 +622,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,6 +644,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -981,24 +985,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1020,23 +1024,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1079,14 +1083,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1108,9 +1112,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1132,9 +1136,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1177,14 +1181,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1195,8 +1199,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1207,8 +1211,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1219,8 +1223,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1231,18 +1235,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1275,19 +1279,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1307,11 +1311,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1319,49 +1323,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1370,6 +1353,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,24 +1400,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1435,23 +1439,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1494,14 +1498,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1523,9 +1527,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1547,9 +1551,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1592,14 +1596,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1610,8 +1614,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1622,8 +1626,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1634,8 +1638,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1646,18 +1650,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1690,19 +1694,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1739,49 +1743,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1790,6 +1773,27 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,24 +1819,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1854,23 +1858,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1913,14 +1917,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1942,9 +1946,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1966,9 +1970,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2011,14 +2015,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2029,8 +2033,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2041,8 +2045,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2053,8 +2057,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2065,18 +2069,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2109,9 +2113,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -2127,9 +2131,9 @@
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2139,14 +2143,14 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2154,49 +2158,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2206,6 +2189,27 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,24 +2235,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2270,23 +2274,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2329,14 +2333,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2358,9 +2362,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2382,9 +2386,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2427,14 +2431,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2445,8 +2449,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2457,8 +2461,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2469,8 +2473,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2481,18 +2485,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2525,19 +2529,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2547,9 +2551,9 @@
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2572,49 +2576,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2624,6 +2607,27 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,24 +2654,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2689,23 +2693,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2748,14 +2752,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2777,9 +2781,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2801,9 +2805,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2846,14 +2850,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2864,8 +2868,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2876,8 +2880,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2888,8 +2892,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2900,18 +2904,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2944,9 +2948,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2954,55 +2958,55 @@
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3029,24 +3033,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3068,23 +3072,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3127,14 +3131,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3156,9 +3160,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3180,9 +3184,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3225,14 +3229,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3243,8 +3247,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3255,8 +3259,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3267,8 +3271,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3279,18 +3283,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3323,27 +3327,27 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -3353,11 +3357,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3365,49 +3369,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -3417,6 +3400,27 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3443,24 +3447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3482,23 +3486,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3541,14 +3545,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3570,9 +3574,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3594,9 +3598,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3639,14 +3643,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3657,8 +3661,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3669,8 +3673,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3681,8 +3685,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3693,18 +3697,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3737,19 +3741,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3769,11 +3773,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3781,49 +3785,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -3832,6 +3815,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3858,24 +3862,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3897,23 +3901,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3956,14 +3960,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3985,9 +3989,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4009,9 +4013,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4054,14 +4058,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4072,8 +4076,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4084,8 +4088,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4096,8 +4100,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4108,18 +4112,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4155,14 +4159,14 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4183,49 +4187,28 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4233,6 +4216,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4258,24 +4262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4297,23 +4301,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4356,14 +4360,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4385,9 +4389,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4409,9 +4413,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4454,14 +4458,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4472,8 +4476,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4484,8 +4488,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4496,8 +4500,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4508,18 +4512,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4552,19 +4556,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4585,49 +4589,28 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4636,6 +4619,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,24 +4665,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4700,23 +4704,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4759,14 +4763,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4788,9 +4792,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4812,9 +4816,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4857,14 +4861,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4875,8 +4879,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4887,8 +4891,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4899,8 +4903,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4911,18 +4915,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4955,19 +4959,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4988,49 +4992,28 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -5039,6 +5022,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5050,7 +5054,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5064,31 +5068,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43718</v>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -5107,23 +5111,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5169,11 +5173,11 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5182,14 +5186,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5201,11 +5205,11 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5217,11 +5221,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5249,11 +5253,11 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5312,26 +5316,26 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -5370,14 +5374,14 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5406,19 +5410,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -5442,11 +5446,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5454,49 +5458,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5505,6 +5488,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.46875" right="0.16875000000000001" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5532,24 +5536,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5571,23 +5575,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5630,14 +5634,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5659,9 +5663,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5683,9 +5687,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5728,14 +5732,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -5746,8 +5750,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -5758,8 +5762,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -5770,8 +5774,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -5782,18 +5786,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5826,19 +5830,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5875,49 +5879,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5926,6 +5909,27 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5951,24 +5955,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5990,23 +5994,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6049,14 +6053,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6078,9 +6082,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6102,9 +6106,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6147,14 +6151,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -6165,8 +6169,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -6177,8 +6181,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -6189,8 +6193,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -6201,18 +6205,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -6245,19 +6249,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -6277,11 +6281,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6289,49 +6293,28 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -6340,6 +6323,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/wordTemp/temp2/6面谈记录及授信额度测算表 抵押贷.xlsx
+++ b/src/main/resources/wordTemp/temp2/6面谈记录及授信额度测算表 抵押贷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\demoTemplate\Template\src\main\resources\wordTemp\temp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7E6BF060-646A-4B36-BD3D-2522B668ADE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B6D9EA9B-DA98-4938-B81B-D89307E6E8DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,20 +598,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,17 +625,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,18 +656,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -985,24 +985,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1024,23 +1024,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1083,14 +1083,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1112,9 +1112,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1136,9 +1136,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1181,14 +1181,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1199,8 +1199,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1211,8 +1211,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1223,8 +1223,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1235,18 +1235,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1279,19 +1279,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1311,11 +1311,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1323,28 +1323,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1353,27 +1374,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,24 +1400,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1439,23 +1439,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1498,14 +1498,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1527,9 +1527,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1551,9 +1551,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1596,14 +1596,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1614,8 +1614,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1626,8 +1626,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1638,8 +1638,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1650,18 +1650,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1694,19 +1694,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1743,28 +1743,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1773,27 +1794,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,24 +1819,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1858,23 +1858,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1917,14 +1917,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1946,9 +1946,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1970,9 +1970,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2015,14 +2015,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2033,8 +2033,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2045,8 +2045,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2057,8 +2057,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2069,18 +2069,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2113,9 +2113,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -2131,9 +2131,9 @@
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2143,14 +2143,14 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2158,28 +2158,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2189,27 +2210,6 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2235,24 +2235,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2274,23 +2274,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2333,14 +2333,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2362,9 +2362,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2386,9 +2386,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2431,14 +2431,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2449,8 +2449,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2461,8 +2461,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2473,8 +2473,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2485,18 +2485,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2529,19 +2529,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2551,9 +2551,9 @@
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2576,28 +2576,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2607,27 +2628,6 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,24 +2654,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2693,23 +2693,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2752,14 +2752,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2781,9 +2781,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2805,9 +2805,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2850,14 +2850,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2868,8 +2868,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2880,8 +2880,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2892,8 +2892,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2904,18 +2904,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2948,9 +2948,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2958,55 +2958,55 @@
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,24 +3033,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3072,23 +3072,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3131,14 +3131,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3160,9 +3160,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3184,9 +3184,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3229,14 +3229,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3247,8 +3247,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3259,8 +3259,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3271,8 +3271,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3283,18 +3283,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3327,27 +3327,27 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -3357,11 +3357,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3369,28 +3369,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -3400,27 +3421,6 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3447,24 +3447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3486,23 +3486,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3545,14 +3545,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3574,9 +3574,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3598,9 +3598,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3643,14 +3643,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -3661,8 +3661,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3673,8 +3673,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3685,8 +3685,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -3697,18 +3697,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3741,19 +3741,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3773,11 +3773,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3785,28 +3785,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -3815,27 +3836,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3862,24 +3862,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3901,23 +3901,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3960,14 +3960,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3989,9 +3989,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4013,9 +4013,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4058,14 +4058,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4076,8 +4076,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4088,8 +4088,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4100,8 +4100,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4112,18 +4112,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4159,14 +4159,14 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4187,28 +4187,49 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4216,27 +4237,6 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4262,24 +4262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4301,23 +4301,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4360,14 +4360,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4389,9 +4389,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4413,9 +4413,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4458,14 +4458,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4476,8 +4476,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4488,8 +4488,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4500,8 +4500,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4512,18 +4512,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4556,19 +4556,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4589,28 +4589,49 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4619,27 +4640,6 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4665,24 +4665,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4704,23 +4704,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4763,14 +4763,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4792,9 +4792,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4816,9 +4816,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4861,14 +4861,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4879,8 +4879,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -4891,8 +4891,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4903,8 +4903,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4915,18 +4915,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4959,19 +4959,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -4992,28 +4992,49 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -5022,27 +5043,6 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5054,7 +5054,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5062,30 +5062,30 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5111,23 +5111,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5173,11 +5173,11 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5186,14 +5186,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5205,11 +5205,11 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5221,11 +5221,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5253,11 +5253,11 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="26">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5316,26 +5316,26 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -5374,14 +5374,14 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5410,19 +5410,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -5446,11 +5446,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5458,28 +5458,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5488,27 +5509,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.46875" right="0.16875000000000001" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5536,24 +5536,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5575,23 +5575,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5634,14 +5634,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5663,9 +5663,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5687,9 +5687,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5732,14 +5732,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -5750,8 +5750,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -5762,8 +5762,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -5774,8 +5774,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -5786,18 +5786,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5830,19 +5830,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5879,28 +5879,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5909,27 +5930,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5955,24 +5955,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5994,23 +5994,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6053,14 +6053,14 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6082,9 +6082,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6106,9 +6106,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6151,14 +6151,14 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -6169,8 +6169,8 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -6181,8 +6181,8 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -6193,8 +6193,8 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -6205,18 +6205,18 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -6249,19 +6249,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -6281,11 +6281,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6293,28 +6293,49 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -6323,27 +6344,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
